--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H2">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I2">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J2">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N2">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O2">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P2">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q2">
-        <v>578.0841001314194</v>
+        <v>773.0067763894609</v>
       </c>
       <c r="R2">
-        <v>5202.756901182775</v>
+        <v>6957.060987505149</v>
       </c>
       <c r="S2">
-        <v>0.003547850210586413</v>
+        <v>0.005244674583844159</v>
       </c>
       <c r="T2">
-        <v>0.003547850210586413</v>
+        <v>0.00524467458384416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H3">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I3">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J3">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N3">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O3">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P3">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q3">
-        <v>785.4030474310716</v>
+        <v>1832.99706685318</v>
       </c>
       <c r="R3">
-        <v>7068.627426879644</v>
+        <v>16496.97360167862</v>
       </c>
       <c r="S3">
-        <v>0.004820219699158077</v>
+        <v>0.0124364668233416</v>
       </c>
       <c r="T3">
-        <v>0.004820219699158077</v>
+        <v>0.0124364668233416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H4">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I4">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J4">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N4">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O4">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P4">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q4">
-        <v>170.3447383819974</v>
+        <v>455.1676464514055</v>
       </c>
       <c r="R4">
-        <v>1533.102645437976</v>
+        <v>4096.50881806265</v>
       </c>
       <c r="S4">
-        <v>0.001045449296743267</v>
+        <v>0.003088208615559553</v>
       </c>
       <c r="T4">
-        <v>0.001045449296743267</v>
+        <v>0.003088208615559554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H5">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I5">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J5">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N5">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O5">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P5">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q5">
-        <v>754.5877026259099</v>
+        <v>1609.41782208345</v>
       </c>
       <c r="R5">
-        <v>6791.289323633187</v>
+        <v>14484.76039875105</v>
       </c>
       <c r="S5">
-        <v>0.004631098034107209</v>
+        <v>0.01091953266657284</v>
       </c>
       <c r="T5">
-        <v>0.004631098034107209</v>
+        <v>0.01091953266657285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I6">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J6">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N6">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O6">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P6">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q6">
-        <v>37496.09633737659</v>
+        <v>21483.70324972784</v>
       </c>
       <c r="R6">
-        <v>337464.8670363894</v>
+        <v>193353.3292475506</v>
       </c>
       <c r="S6">
-        <v>0.2301231486153785</v>
+        <v>0.1457620241403022</v>
       </c>
       <c r="T6">
-        <v>0.2301231486153785</v>
+        <v>0.1457620241403022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I7">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J7">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N7">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O7">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P7">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q7">
         <v>50943.36329860945</v>
       </c>
       <c r="R7">
-        <v>458490.269687485</v>
+        <v>458490.2696874851</v>
       </c>
       <c r="S7">
-        <v>0.3126524707492613</v>
+        <v>0.3456390951133699</v>
       </c>
       <c r="T7">
-        <v>0.3126524707492614</v>
+        <v>0.3456390951133699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I8">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J8">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N8">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O8">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P8">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q8">
-        <v>11049.01989085071</v>
+        <v>12650.19524267699</v>
       </c>
       <c r="R8">
-        <v>99441.17901765637</v>
+        <v>113851.7571840929</v>
       </c>
       <c r="S8">
-        <v>0.06781066550285071</v>
+        <v>0.08582868804827574</v>
       </c>
       <c r="T8">
-        <v>0.06781066550285074</v>
+        <v>0.08582868804827576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I9">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J9">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N9">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O9">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P9">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q9">
-        <v>48944.59679176183</v>
+        <v>44729.56247028252</v>
       </c>
       <c r="R9">
-        <v>440501.3711258565</v>
+        <v>402566.0622325428</v>
       </c>
       <c r="S9">
-        <v>0.3003855286717673</v>
+        <v>0.3034798744327783</v>
       </c>
       <c r="T9">
-        <v>0.3003855286717673</v>
+        <v>0.3034798744327784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H10">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I10">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J10">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N10">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O10">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P10">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q10">
-        <v>3010.337140064938</v>
+        <v>2055.764804976328</v>
       </c>
       <c r="R10">
-        <v>27093.03426058443</v>
+        <v>18501.88324478695</v>
       </c>
       <c r="S10">
-        <v>0.01847521018808074</v>
+        <v>0.01394789509269261</v>
       </c>
       <c r="T10">
-        <v>0.01847521018808074</v>
+        <v>0.01394789509269261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H11">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I11">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J11">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N11">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O11">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P11">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q11">
-        <v>4089.93771505641</v>
+        <v>4874.744921722507</v>
       </c>
       <c r="R11">
-        <v>36809.43943550769</v>
+        <v>43872.70429550256</v>
       </c>
       <c r="S11">
-        <v>0.02510099547859808</v>
+        <v>0.03307403191611916</v>
       </c>
       <c r="T11">
-        <v>0.02510099547859808</v>
+        <v>0.03307403191611916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H12">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I12">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J12">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N12">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O12">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P12">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q12">
-        <v>887.0596725448686</v>
+        <v>1210.490847582517</v>
       </c>
       <c r="R12">
-        <v>7983.537052903816</v>
+        <v>10894.41762824265</v>
       </c>
       <c r="S12">
-        <v>0.005444112448907631</v>
+        <v>0.008212904176526127</v>
       </c>
       <c r="T12">
-        <v>0.005444112448907632</v>
+        <v>0.008212904176526127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H13">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I13">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J13">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N13">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O13">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P13">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q13">
-        <v>3929.468715944003</v>
+        <v>4280.149432317342</v>
       </c>
       <c r="R13">
-        <v>35365.21844349602</v>
+        <v>38521.34489085608</v>
       </c>
       <c r="S13">
-        <v>0.02411615612362513</v>
+        <v>0.02903983720243597</v>
       </c>
       <c r="T13">
-        <v>0.02411615612362513</v>
+        <v>0.02903983720243597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H14">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I14">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J14">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N14">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O14">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P14">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q14">
-        <v>76.02743610734511</v>
+        <v>81.15191706653177</v>
       </c>
       <c r="R14">
-        <v>684.246924966106</v>
+        <v>730.367253598786</v>
       </c>
       <c r="S14">
-        <v>0.000466599851375378</v>
+        <v>0.0005505972390785771</v>
       </c>
       <c r="T14">
-        <v>0.000466599851375378</v>
+        <v>0.0005505972390785772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H15">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I15">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J15">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N15">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O15">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P15">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q15">
-        <v>103.2932405397505</v>
+        <v>192.4319818349439</v>
       </c>
       <c r="R15">
-        <v>929.6391648577548</v>
+        <v>1731.887836514495</v>
       </c>
       <c r="S15">
-        <v>0.0006339370778711875</v>
+        <v>0.001305607085312287</v>
       </c>
       <c r="T15">
-        <v>0.0006339370778711875</v>
+        <v>0.001305607085312287</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H16">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I16">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J16">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N16">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O16">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P16">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q16">
-        <v>22.40309621146045</v>
+        <v>47.78448032334288</v>
       </c>
       <c r="R16">
-        <v>201.627865903144</v>
+        <v>430.060322910086</v>
       </c>
       <c r="S16">
-        <v>0.0001374935404615838</v>
+        <v>0.0003242067949579939</v>
       </c>
       <c r="T16">
-        <v>0.0001374935404615839</v>
+        <v>0.0003242067949579939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H17">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I17">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J17">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N17">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O17">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P17">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q17">
-        <v>99.2405228508059</v>
+        <v>168.960150948678</v>
       </c>
       <c r="R17">
-        <v>893.1647056572532</v>
+        <v>1520.641358538102</v>
       </c>
       <c r="S17">
-        <v>0.0006090645112275092</v>
+        <v>0.001146356068832886</v>
       </c>
       <c r="T17">
-        <v>0.0006090645112275092</v>
+        <v>0.001146356068832886</v>
       </c>
     </row>
   </sheetData>
